--- a/Excel工程/dev/Module Design of CC.xlsx
+++ b/Excel工程/dev/Module Design of CC.xlsx
@@ -65,22 +65,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>内部计算参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部计算结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1）Calculate the CC voltage value：</t>
     </r>
@@ -189,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外部可调/固定参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The CCM module acquires the voltage value at Detection Point 3 as 'ADC_CC_Voltage‘.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,7 +182,19 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">                      </t>
+      <t xml:space="preserve">  The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CCM_CC_MaxACCurrent</t>
     </r>
     <r>
       <rPr>
@@ -212,8 +204,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 
- </t>
+      <t xml:space="preserve"> is determined based on the </t>
     </r>
     <r>
       <rPr>
@@ -235,405 +226,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CC_Voltage_Limit0+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delta</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>——&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">0 Disconnected   
-   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Raw_CC_Voltage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CC_Voltage_Limit1i+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   1 AC Connected  
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Raw_CC_Voltage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CC_Voltage_Limit2+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    2 Half-Connected  
-      </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Raw_CC_Voltage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CC_Voltage_Limit3i+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>：——</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    3 Invert Connected 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Raw_CC_Voltage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>!=</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CC_Voltage_Limit4+</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>delta</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: ——&gt;   4 Invalid</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">  The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CCM_CC_MaxACCurrent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is determined based on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Raw_CC_Voltage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -680,6 +272,29 @@
   </si>
   <si>
     <t>DisConnect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw_CC_Voltage=CC_Voltage_Limit0+delta：——&gt;0 Disconnected  </t>
+  </si>
+  <si>
+    <t>HCU_V2V_Enable=0             Raw_CC_Voltage=CC_Voltage_Limit3i+delta：——&gt;    3 InvertV2L Connected</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HCU_V2V_Enable=1          Raw_CC_Voltage=CC_Voltage_Limit1i+delta：——&gt;     4 InvertV2V Connected  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HCU_V2V_Enable=0/1       Raw_CC_Voltage=CC_Voltage_Limit2+delta：——&gt;     2 Half-Connected  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">HCU_V2V_Enable=0/1    Raw_CC_Voltage=CC_Voltage_Limit1i+delta：——&gt;       1 AC Connected  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HCU_V2V_Enable=1/0 Raw_CC_Voltage!=CC_Voltage_Limit4+delta: ——&gt;             5 Invalid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -756,15 +371,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="5"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -780,8 +386,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -824,6 +438,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -942,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -998,17 +618,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1032,58 +658,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1250678</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>278528</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>5807570</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>2236304</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7263852" y="8726789"/>
-          <a:ext cx="4556892" cy="1957776"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
       <xdr:colOff>2269432</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>184007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>4961280</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>1643634</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1094,7 +676,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1120,15 +702,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>2865784</xdr:colOff>
+      <xdr:colOff>1308654</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>422413</xdr:rowOff>
+      <xdr:rowOff>397565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>4222672</xdr:colOff>
+      <xdr:colOff>2698061</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>2841601</xdr:rowOff>
+      <xdr:rowOff>2874731</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1138,7 +720,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1151,8 +733,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8878958" y="4207565"/>
-          <a:ext cx="1356888" cy="2419188"/>
+          <a:off x="7321828" y="4182717"/>
+          <a:ext cx="1389407" cy="2477166"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2965175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>472109</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>5018155</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2826927</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8978349" y="4257261"/>
+          <a:ext cx="2052980" cy="2354818"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2203174</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>224222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4248977</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2194344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8216348" y="9070048"/>
+          <a:ext cx="2045803" cy="1970122"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1427,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I43"/>
+  <dimension ref="A3:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1444,9 +1102,7 @@
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D4" s="10"/>
-      <c r="E4" s="15" t="s">
-        <v>12</v>
-      </c>
+      <c r="E4" s="15"/>
       <c r="G4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1459,9 +1115,7 @@
     </row>
     <row r="5" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D5" s="11"/>
-      <c r="E5" s="16" t="s">
-        <v>13</v>
-      </c>
+      <c r="E5" s="16"/>
       <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1471,10 +1125,8 @@
     </row>
     <row r="6" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D6" s="12"/>
-      <c r="E6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="22">
+      <c r="E6" s="16"/>
+      <c r="G6" s="21">
         <v>2</v>
       </c>
       <c r="H6" s="7" t="s">
@@ -1486,10 +1138,8 @@
         <v>4</v>
       </c>
       <c r="D7" s="13"/>
-      <c r="E7" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="22">
+      <c r="E7" s="16"/>
+      <c r="G7" s="21">
         <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1498,18 +1148,16 @@
     </row>
     <row r="8" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D8" s="14"/>
-      <c r="E8" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="22">
+      <c r="E8" s="17"/>
+      <c r="G8" s="21">
         <v>4</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G9" s="22">
+    <row r="9" spans="1:9" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="21">
         <v>5</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -1517,7 +1165,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G10" s="22">
+      <c r="F10" s="23"/>
+      <c r="G10" s="21">
         <v>6</v>
       </c>
       <c r="H10" s="8" t="s">
@@ -1526,180 +1175,212 @@
     </row>
     <row r="11" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11" s="1"/>
-      <c r="G11" s="22">
+      <c r="F11" s="24"/>
+      <c r="G11" s="21">
         <v>7</v>
       </c>
-      <c r="H11" s="20" t="s">
-        <v>26</v>
+      <c r="H11" s="19" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E12" s="1"/>
-      <c r="G12" s="22">
+      <c r="F12" s="24"/>
+      <c r="G12" s="21">
         <v>8</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E13" s="1"/>
-      <c r="G13" s="22">
+      <c r="F13" s="13"/>
+      <c r="G13" s="21">
         <v>9</v>
       </c>
       <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="14"/>
+      <c r="G14" s="21">
+        <v>10</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="21">
+        <v>11</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="21">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G17" s="21">
+        <v>13</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="7:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="21">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="7:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="21"/>
+      <c r="H19" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="21"/>
+      <c r="H20" s="22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="7:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="21"/>
+      <c r="H21" s="22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="7:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="21"/>
+      <c r="H22" s="22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="7:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="21"/>
+      <c r="H23" s="22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="7:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="21"/>
+      <c r="H24" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="7:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="21">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G14" s="22">
-        <v>10</v>
-      </c>
-      <c r="H14" s="2" t="s">
+    <row r="26" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="21">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G15" s="22">
-        <v>11</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="22">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="7:8" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="22">
-        <v>13</v>
-      </c>
-      <c r="H17" s="18" t="s">
+    <row r="27" spans="7:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="21">
+        <v>18</v>
+      </c>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="7:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="21">
+        <v>19</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="21">
+        <v>20</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="21">
+        <v>21</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="21">
+        <v>22</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="21">
+        <v>23</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="7:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G18" s="22">
-        <v>14</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="7:8" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="22">
-        <v>15</v>
-      </c>
-      <c r="H19" s="19" t="s">
+    <row r="33" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="21">
+        <v>24</v>
+      </c>
+      <c r="H33" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="7:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G20" s="22">
-        <v>16</v>
-      </c>
-      <c r="H20" s="2" t="s">
+    <row r="34" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="21">
+        <v>25</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G21" s="22">
-        <v>17</v>
-      </c>
-      <c r="H21" s="2" t="s">
+    <row r="35" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G35" s="21">
+        <v>26</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="7:8" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="22">
-        <v>18</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="7:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G23" s="22">
-        <v>19</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="22">
-        <v>20</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G25" s="22">
-        <v>21</v>
-      </c>
-      <c r="H25" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G26" s="22">
-        <v>22</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G27" s="22">
-        <v>23</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G28" s="22">
-        <v>24</v>
-      </c>
-      <c r="H28" s="21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="22">
-        <v>25</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="22">
-        <v>26</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="22"/>
-    </row>
-    <row r="32" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G36" s="21"/>
+    </row>
+    <row r="37" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="7:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
